--- a/documentatie/Product backlog overview & Sprint backlogs.xlsx
+++ b/documentatie/Product backlog overview & Sprint backlogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6324" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6324"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -629,11 +629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15800,7 +15800,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39065,7 +39065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/documentatie/Product backlog overview & Sprint backlogs.xlsx
+++ b/documentatie/Product backlog overview & Sprint backlogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6324"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6324" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -105,12 +105,6 @@
     <t>Als user wil ik zien, dat de datasets gerelateerd is aan rotterdam.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Bedenk 3 vragen </t>
-  </si>
-  <si>
-    <t>1. Zoek 2 datasets uit</t>
-  </si>
-  <si>
     <t>Als user wil ik zien, dat de datasets informatie bevat over de locatie</t>
   </si>
   <si>
@@ -118,6 +112,24 @@
   </si>
   <si>
     <t>SPRINT  3 BACKLOG</t>
+  </si>
+  <si>
+    <t>1. Zorg dat de dataset voorzien is van een locatie</t>
+  </si>
+  <si>
+    <t>1. Zorg dat de dataset alleen voor rotterdam te zien is</t>
+  </si>
+  <si>
+    <t>1. Zorg dat de dataset informatie bevat over tijd.</t>
+  </si>
+  <si>
+    <t>Woonwijk is ook acceptable!</t>
+  </si>
+  <si>
+    <t>1. Bedenk 3 vragen              2. Maak een verslag</t>
+  </si>
+  <si>
+    <t>1. Zoek 2 datasets uit            2. Maak een verslag</t>
   </si>
 </sst>
 </file>
@@ -262,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -314,10 +326,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,6 +354,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -638,7 +656,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="21" customWidth="1"/>
+    <col min="1" max="1" width="5" style="19" customWidth="1"/>
     <col min="2" max="2" width="84.109375" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
@@ -648,10 +666,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -782,7 +800,7 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -804,7 +822,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -826,7 +844,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -845,7 +863,7 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -864,7 +882,7 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -883,7 +901,7 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -902,7 +920,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -921,7 +939,7 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -940,7 +958,7 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
       <c r="C15" t="s">
@@ -15799,29 +15817,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="41.77734375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -15847,19 +15865,19 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
@@ -15883,21 +15901,21 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="50.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>12</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>22</v>
@@ -15923,21 +15941,21 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="30">
-        <v>4</v>
+      <c r="D4" s="28">
+        <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
+      <c r="E4" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="2"/>
@@ -15971,10 +15989,12 @@
       <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>2</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -16001,16 +16021,21 @@
       <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>28</v>
+      <c r="B6" s="25" t="s">
+        <v>26</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>4</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -16036,16 +16061,18 @@
       <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>29</v>
+      <c r="B7" s="25" t="s">
+        <v>27</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -16161,11 +16188,11 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -16189,11 +16216,11 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -16217,11 +16244,11 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -16245,11 +16272,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -16273,11 +16300,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -16301,11 +16328,11 @@
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -16329,7 +16356,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="27"/>
+      <c r="B18" s="25"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -38964,32 +38991,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -38998,10 +39025,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -39010,10 +39037,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
@@ -39025,7 +39052,7 @@
       <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
@@ -39033,25 +39060,25 @@
       <c r="A6" s="18">
         <v>9</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>10</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="24"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39078,32 +39105,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
-        <v>30</v>
+      <c r="A1" s="30" t="s">
+        <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -39112,10 +39139,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
@@ -39124,10 +39151,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
@@ -39139,7 +39166,7 @@
       <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
@@ -39147,25 +39174,25 @@
       <c r="A6" s="18">
         <v>14</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>15</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="24"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentatie/Product backlog overview & Sprint backlogs.xlsx
+++ b/documentatie/Product backlog overview & Sprint backlogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6324" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6324"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>1. Zoek 2 datasets uit            2. Maak een verslag</t>
+  </si>
+  <si>
+    <t>Het moet gebruiksvriendelijk zijn</t>
+  </si>
+  <si>
+    <t>Maak een database/dataset</t>
+  </si>
+  <si>
+    <t>Geavanceerde Visualisatie van de applicatie</t>
+  </si>
+  <si>
+    <t>Basic visualisatie van de applicatie</t>
+  </si>
+  <si>
+    <t>Maak een Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Maak een Activity Diagram</t>
   </si>
 </sst>
 </file>
@@ -355,16 +373,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,11 +665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,10 +684,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -847,6 +865,9 @@
       <c r="A9" s="19">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -865,6 +886,9 @@
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -885,8 +909,11 @@
       <c r="A11" s="19">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="12"/>
@@ -904,8 +931,11 @@
       <c r="A12" s="19">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="12"/>
@@ -923,8 +953,11 @@
       <c r="A13" s="19">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
@@ -942,8 +975,11 @@
       <c r="A14" s="19">
         <v>12</v>
       </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -961,9 +997,6 @@
       <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -994,9 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1014,9 +1045,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1034,9 +1063,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1054,9 +1081,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1074,9 +1099,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1094,9 +1117,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1114,9 +1135,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="C23" s="17"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1134,9 +1153,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="17"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1154,9 +1171,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -15817,7 +15832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -15832,10 +15847,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="1"/>
@@ -16191,7 +16206,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="23"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -16219,7 +16234,7 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="24"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -16247,7 +16262,7 @@
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="24"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -16275,7 +16290,7 @@
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="24"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -16303,7 +16318,7 @@
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="24"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -16331,7 +16346,7 @@
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="24"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -38991,10 +39006,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -39105,10 +39120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>

--- a/documentatie/Product backlog overview & Sprint backlogs.xlsx
+++ b/documentatie/Product backlog overview & Sprint backlogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -120,9 +120,6 @@
     <t>1. Bedenk minimaal 3 vragen                  2. Maak een verslag</t>
   </si>
   <si>
-    <t>dsf</t>
-  </si>
-  <si>
     <t>1. De vragen moeten aansluiten op de applicatie       2. de vragen moeten goedgekeurd zijn door de P.O   3. Alles in een overzichtelijk document zetten</t>
   </si>
   <si>
@@ -139,6 +136,51 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Een database maken voor de applicatie met data uit de datasets</t>
+  </si>
+  <si>
+    <t>Een formulier in C# maken en koppelen aan de database om data in te voeren</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Een formulier in C# maken en koppelen aan de database om data op te halen</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Data verzamelen uit de data sets</t>
+  </si>
+  <si>
+    <t>Visuele aspecten maken voor de applicatie(een beginscherm, menu etc.)</t>
+  </si>
+  <si>
+    <t>De formulieren koppelen aan de app</t>
+  </si>
+  <si>
+    <t>1. Maak een database aan in PostgreSQL</t>
+  </si>
+  <si>
+    <t>1. De database aangemaken  2. Tables invoeren</t>
+  </si>
+  <si>
+    <t>1. Bestudeer de datasets 2. Onttrek er infomatie uit</t>
+  </si>
+  <si>
+    <t>1. Als alle "not null" rows in de tables ingevuld zijn</t>
+  </si>
+  <si>
+    <t>1. Een formulier maken in Windows forms.             2. De formulier koppelen aan de database in Postgres</t>
+  </si>
+  <si>
+    <t>1. Als alle rows die in de tables van de database zitten gevuld kunnen worden.                     2. Er geen dubbele waarden ingevoerd kunnen worden                                      3. Als de waarden die worden ingevuld in de formulier ook in de database worden ingevoerd</t>
+  </si>
+  <si>
+    <t>1. De data dat word opgevraagd moet worden weergegeven vanuit de database.</t>
   </si>
 </sst>
 </file>
@@ -219,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -279,11 +321,271 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -374,32 +676,141 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -758,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -782,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -806,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -830,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -854,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -877,11 +1288,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>37</v>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="34" t="s">
+        <v>36</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -895,8 +1306,16 @@
       <c r="A9" s="19">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="12"/>
+      <c r="E9" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="9"/>
@@ -911,9 +1330,17 @@
       <c r="A10" s="19">
         <v>8</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="2"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -927,8 +1354,16 @@
       <c r="A11" s="19">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="2"/>
       <c r="H11" s="9"/>
@@ -943,8 +1378,16 @@
       <c r="A12" s="19">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
       <c r="H12" s="9"/>
@@ -959,9 +1402,17 @@
       <c r="A13" s="19">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -975,9 +1426,14 @@
       <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1020,8 +1476,6 @@
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1057,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1164,7 +1618,7 @@
       <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1180,8 +1634,8 @@
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1323,11 +1777,11 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="2"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -1338,11 +1792,11 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -15812,6 +16266,13 @@
       <c r="M1000" s="9"/>
       <c r="N1000" s="9"/>
     </row>
+    <row r="1001" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1001" s="9"/>
+      <c r="C1001" s="9"/>
+      <c r="D1001" s="9"/>
+      <c r="E1001" s="9"/>
+      <c r="F1001" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:B3"/>
   <mergeCells count="1">
@@ -15826,8 +16287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15841,14 +16302,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -15870,23 +16331,23 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
@@ -15911,27 +16372,25 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="76">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="78">
         <v>12</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="54" t="s">
         <v>31</v>
       </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -15953,23 +16412,23 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="67">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="62">
         <v>6</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>33</v>
+      <c r="F4" s="70" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -15993,23 +16452,23 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="67">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="62">
         <v>2</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>34</v>
+      <c r="F5" s="70" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -16033,23 +16492,23 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39">
+      <c r="A6" s="68">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="64">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>35</v>
+      <c r="F6" s="71" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -16072,24 +16531,24 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39">
+    <row r="7" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="73">
         <v>8</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>36</v>
+      <c r="F7" s="75" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -38996,104 +39455,132 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="41">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="D3" s="43">
+        <v>8</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="39">
         <v>7</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="D4" s="36">
+        <v>80</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
         <v>8</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>8</v>
+      <c r="B5" s="38" t="s">
+        <v>38</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="C5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="36">
+        <v>20</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="22" t="s">
-        <v>8</v>
+      <c r="B6" s="56" t="s">
+        <v>40</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="22"/>
+      <c r="C6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="57">
+        <v>20</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>10</v>
-      </c>
+      <c r="A7" s="18"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="25"/>
       <c r="F7" s="22"/>

--- a/documentatie/Product backlog overview & Sprint backlogs.xlsx
+++ b/documentatie/Product backlog overview & Sprint backlogs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -672,10 +672,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,10 +705,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -812,6 +804,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1094,11 +1094,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1113,10 +1113,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="2"/>
@@ -1313,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="8"/>
@@ -1337,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="12"/>
@@ -1361,7 +1361,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="8"/>
@@ -1385,7 +1385,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="8"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="2"/>
@@ -1429,9 +1429,12 @@
       <c r="B14" t="s">
         <v>44</v>
       </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="2"/>
@@ -16287,7 +16290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -16302,14 +16305,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -16332,22 +16335,22 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="49" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
@@ -16372,22 +16375,22 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76">
+      <c r="A3" s="72">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="74">
         <v>12</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="50" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="2"/>
@@ -16412,22 +16415,22 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="58">
         <v>6</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="2"/>
@@ -16452,22 +16455,22 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67">
+      <c r="A5" s="63">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="58">
         <v>2</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="66" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="2"/>
@@ -16492,22 +16495,22 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="68">
+      <c r="A6" s="64">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="60">
         <v>4</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="67" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="2"/>
@@ -16532,22 +16535,22 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="65">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="69">
         <v>8</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="71" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="2"/>
@@ -39468,112 +39471,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="41">
+      <c r="A3" s="39">
         <v>6</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="41">
         <v>8</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="37">
         <v>7</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <v>80</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="39">
+      <c r="A5" s="37">
         <v>8</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="34">
         <v>20</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="38">
         <v>9</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="53">
         <v>20</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="55" t="s">
         <v>51</v>
       </c>
     </row>
@@ -39610,10 +39613,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
